--- a/192_健康診断結果/健康診断推移.xlsx
+++ b/192_健康診断結果/健康診断推移.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1310202\Desktop\20180921\horie\10.庶務\192_検診\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CD0E1-C50B-4FD9-A302-1A6A4232A2B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16EFF234-6C36-476D-9B0B-3E587BCEF633}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>身長</t>
     <rPh sb="0" eb="2">
@@ -397,7 +396,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy/m/d"/>
   </numFmts>
@@ -465,7 +464,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -529,7 +528,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -582,7 +581,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -632,7 +631,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -685,7 +684,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -735,7 +734,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -785,7 +784,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -840,7 +839,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -895,7 +894,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -950,7 +949,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -1005,7 +1004,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-C5DC-487B-9A31-7A3F9BD8C488}"/>
             </c:ext>
@@ -1060,7 +1059,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EA2-4F16-8D01-F9BEE47B80AE}"/>
             </c:ext>
@@ -1115,7 +1114,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6EA2-4F16-8D01-F9BEE47B80AE}"/>
             </c:ext>
@@ -1129,6 +1128,9 @@
               <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20/3/18</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1162,10 +1164,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6EA2-4F16-8D01-F9BEE47B80AE}"/>
             </c:ext>
@@ -1215,7 +1220,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6EA2-4F16-8D01-F9BEE47B80AE}"/>
             </c:ext>
@@ -1265,7 +1270,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6EA2-4F16-8D01-F9BEE47B80AE}"/>
             </c:ext>
@@ -1280,11 +1285,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451431376"/>
-        <c:axId val="451428424"/>
+        <c:axId val="342850992"/>
+        <c:axId val="342748616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451431376"/>
+        <c:axId val="342850992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1346,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451428424"/>
+        <c:crossAx val="342748616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451428424"/>
+        <c:axId val="342748616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1411,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451431376"/>
+        <c:crossAx val="342850992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,14 +1425,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1463,7 +1468,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1536,7 +1541,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -1595,7 +1600,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -1654,7 +1659,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -1713,7 +1718,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -1772,7 +1777,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -1831,7 +1836,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -1892,7 +1897,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -1953,7 +1958,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -2014,7 +2019,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -2075,7 +2080,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-7928-4EEE-979B-45BD2827C6A7}"/>
             </c:ext>
@@ -2136,7 +2141,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2135-4715-B5E0-6ED3EC57121A}"/>
             </c:ext>
@@ -2197,7 +2202,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2135-4715-B5E0-6ED3EC57121A}"/>
             </c:ext>
@@ -2211,6 +2216,9 @@
               <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20/3/18</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2247,10 +2255,16 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>172.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2135-4715-B5E0-6ED3EC57121A}"/>
             </c:ext>
@@ -2303,7 +2317,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2135-4715-B5E0-6ED3EC57121A}"/>
             </c:ext>
@@ -2356,7 +2370,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2135-4715-B5E0-6ED3EC57121A}"/>
             </c:ext>
@@ -2371,11 +2385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451431376"/>
-        <c:axId val="451428424"/>
+        <c:axId val="342759792"/>
+        <c:axId val="342760176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451431376"/>
+        <c:axId val="342759792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2446,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451428424"/>
+        <c:crossAx val="342760176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2440,7 +2454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451428424"/>
+        <c:axId val="342760176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2511,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451431376"/>
+        <c:crossAx val="342759792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2511,14 +2525,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2554,7 +2568,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2624,7 +2638,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -2689,7 +2703,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -2745,7 +2759,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -2810,7 +2824,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -2866,7 +2880,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -2922,7 +2936,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -2989,7 +3003,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -3047,7 +3061,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -3114,7 +3128,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -3181,7 +3195,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-BA4A-4443-98EC-6B2B8C049418}"/>
             </c:ext>
@@ -3248,7 +3262,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A0D9-47EC-A599-AB82B4EA298A}"/>
             </c:ext>
@@ -3315,7 +3329,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A0D9-47EC-A599-AB82B4EA298A}"/>
             </c:ext>
@@ -3329,6 +3343,9 @@
               <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20/3/18</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3368,10 +3385,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A0D9-47EC-A599-AB82B4EA298A}"/>
             </c:ext>
@@ -3427,7 +3453,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A0D9-47EC-A599-AB82B4EA298A}"/>
             </c:ext>
@@ -3442,11 +3468,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451431376"/>
-        <c:axId val="451428424"/>
+        <c:axId val="342653056"/>
+        <c:axId val="342653448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451431376"/>
+        <c:axId val="342653056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,7 +3529,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451428424"/>
+        <c:crossAx val="342653448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3511,7 +3537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451428424"/>
+        <c:axId val="342653448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3568,7 +3594,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451431376"/>
+        <c:crossAx val="342653056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3582,14 +3608,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3625,7 +3651,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -3695,7 +3721,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -3760,7 +3786,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -3816,7 +3842,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -3881,7 +3907,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -3937,7 +3963,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -3993,7 +4019,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -4060,7 +4086,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -4118,7 +4144,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -4185,7 +4211,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -4252,7 +4278,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-69C5-4411-AD30-6FAC6051FC92}"/>
             </c:ext>
@@ -4319,7 +4345,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F9B-4F82-ADC3-A24AB1C04261}"/>
             </c:ext>
@@ -4386,7 +4412,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F9B-4F82-ADC3-A24AB1C04261}"/>
             </c:ext>
@@ -4400,6 +4426,9 @@
               <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20/3/18</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4439,10 +4468,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7F9B-4F82-ADC3-A24AB1C04261}"/>
             </c:ext>
@@ -4498,7 +4536,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7F9B-4F82-ADC3-A24AB1C04261}"/>
             </c:ext>
@@ -4554,7 +4592,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7F9B-4F82-ADC3-A24AB1C04261}"/>
             </c:ext>
@@ -4569,11 +4607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451431376"/>
-        <c:axId val="451428424"/>
+        <c:axId val="342653840"/>
+        <c:axId val="342651880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451431376"/>
+        <c:axId val="342653840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4668,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451428424"/>
+        <c:crossAx val="342651880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4638,7 +4676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451428424"/>
+        <c:axId val="342651880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,7 +4733,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451431376"/>
+        <c:crossAx val="342653840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4709,14 +4747,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4752,7 +4790,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -4839,7 +4877,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -4924,7 +4962,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -4997,7 +5035,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -5082,7 +5120,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -5155,7 +5193,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -5228,7 +5266,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -5315,7 +5353,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -5390,7 +5428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -5477,7 +5515,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -5564,7 +5602,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-0077-4AC1-8F96-D4D6A25081DA}"/>
             </c:ext>
@@ -5648,7 +5686,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-976E-47B6-805E-0495BA643CAE}"/>
             </c:ext>
@@ -5735,7 +5773,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-976E-47B6-805E-0495BA643CAE}"/>
             </c:ext>
@@ -5749,6 +5787,9 @@
               <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20/3/18</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5805,10 +5846,22 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-976E-47B6-805E-0495BA643CAE}"/>
             </c:ext>
@@ -5881,7 +5934,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-976E-47B6-805E-0495BA643CAE}"/>
             </c:ext>
@@ -5954,7 +6007,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-976E-47B6-805E-0495BA643CAE}"/>
             </c:ext>
@@ -6027,7 +6080,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-976E-47B6-805E-0495BA643CAE}"/>
             </c:ext>
@@ -6042,11 +6095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451431376"/>
-        <c:axId val="451428424"/>
+        <c:axId val="342651488"/>
+        <c:axId val="342654232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451431376"/>
+        <c:axId val="342651488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6103,7 +6156,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451428424"/>
+        <c:crossAx val="342654232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6111,7 +6164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451428424"/>
+        <c:axId val="342654232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6168,7 +6221,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451431376"/>
+        <c:crossAx val="342651488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6182,14 +6235,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6225,7 +6278,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -6289,7 +6342,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6342,7 +6395,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6392,7 +6445,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6445,7 +6498,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6495,7 +6548,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6545,7 +6598,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6600,7 +6653,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6652,7 +6705,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6707,7 +6760,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6762,7 +6815,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-9699-4A5A-B630-9F4192C5B880}"/>
             </c:ext>
@@ -6817,7 +6870,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9862-4BF6-8371-A3284F974A93}"/>
             </c:ext>
@@ -6872,7 +6925,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9862-4BF6-8371-A3284F974A93}"/>
             </c:ext>
@@ -6886,6 +6939,9 @@
               <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20/3/18</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -6919,10 +6975,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>565</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9862-4BF6-8371-A3284F974A93}"/>
             </c:ext>
@@ -6972,7 +7031,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9862-4BF6-8371-A3284F974A93}"/>
             </c:ext>
@@ -7022,7 +7081,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9862-4BF6-8371-A3284F974A93}"/>
             </c:ext>
@@ -7072,7 +7131,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-9862-4BF6-8371-A3284F974A93}"/>
             </c:ext>
@@ -7087,11 +7146,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451431376"/>
-        <c:axId val="451428424"/>
+        <c:axId val="343661256"/>
+        <c:axId val="343667920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451431376"/>
+        <c:axId val="343661256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7148,7 +7207,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451428424"/>
+        <c:crossAx val="343667920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7156,7 +7215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451428424"/>
+        <c:axId val="343667920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7213,7 +7272,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451431376"/>
+        <c:crossAx val="343661256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7227,14 +7286,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7270,7 +7329,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -7352,7 +7411,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -7438,7 +7497,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -7506,7 +7565,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -7592,7 +7651,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -7660,7 +7719,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -7728,7 +7787,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -7816,7 +7875,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -7886,7 +7945,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -7974,7 +8033,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -8053,7 +8112,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-F382-48A3-95FB-2CF0657C0701}"/>
             </c:ext>
@@ -8135,7 +8194,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4265-417A-82E0-05C3EDD7ACEB}"/>
             </c:ext>
@@ -8223,7 +8282,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4265-417A-82E0-05C3EDD7ACEB}"/>
             </c:ext>
@@ -8237,6 +8296,9 @@
               <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20/3/18</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -8288,10 +8350,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4265-417A-82E0-05C3EDD7ACEB}"/>
             </c:ext>
@@ -8359,7 +8430,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4265-417A-82E0-05C3EDD7ACEB}"/>
             </c:ext>
@@ -8427,7 +8498,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4265-417A-82E0-05C3EDD7ACEB}"/>
             </c:ext>
@@ -8495,7 +8566,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4265-417A-82E0-05C3EDD7ACEB}"/>
             </c:ext>
@@ -8510,11 +8581,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451431376"/>
-        <c:axId val="451428424"/>
+        <c:axId val="343660472"/>
+        <c:axId val="343661648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451431376"/>
+        <c:axId val="343660472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8571,7 +8642,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451428424"/>
+        <c:crossAx val="343661648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8579,7 +8650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451428424"/>
+        <c:axId val="343661648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8636,7 +8707,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451431376"/>
+        <c:crossAx val="343660472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8650,14 +8721,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12604,7 +12675,7 @@
         <xdr:cNvPr id="12" name="グラフ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E814571B-CD3D-4323-A016-6D23B7F2DDFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E814571B-CD3D-4323-A016-6D23B7F2DDFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12642,7 +12713,7 @@
         <xdr:cNvPr id="13" name="グラフ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D40E5AA-A377-425C-AB0F-C6EC4691167A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D40E5AA-A377-425C-AB0F-C6EC4691167A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12680,7 +12751,7 @@
         <xdr:cNvPr id="14" name="グラフ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6891E810-A6F3-4840-9D56-BD53890D531D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6891E810-A6F3-4840-9D56-BD53890D531D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12718,7 +12789,7 @@
         <xdr:cNvPr id="15" name="グラフ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8806FFB7-56D1-45F4-B867-BA047D826751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8806FFB7-56D1-45F4-B867-BA047D826751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12756,7 +12827,7 @@
         <xdr:cNvPr id="16" name="グラフ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE54BDAC-893A-4583-BA7E-D0EB1C6B9521}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE54BDAC-893A-4583-BA7E-D0EB1C6B9521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12794,7 +12865,7 @@
         <xdr:cNvPr id="17" name="グラフ 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F06DEA8-C13D-493D-838C-608DF38DC912}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F06DEA8-C13D-493D-838C-608DF38DC912}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12832,7 +12903,7 @@
         <xdr:cNvPr id="18" name="グラフ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0F024B-11F7-4901-B541-56EE654E6E56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F0F024B-11F7-4901-B541-56EE654E6E56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13151,17 +13222,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33603AC6-A6B6-4B14-9B35-C970012D888F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA41" sqref="AA41"/>
+      <selection pane="bottomRight" activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13172,7 +13243,7 @@
     <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C1" s="1">
         <v>41746</v>
       </c>
@@ -13209,8 +13280,11 @@
       <c r="N1" s="1">
         <v>43762</v>
       </c>
+      <c r="O1" s="1">
+        <v>43908</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -13247,8 +13321,11 @@
       <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -13291,8 +13368,11 @@
       <c r="N3">
         <v>173</v>
       </c>
+      <c r="O3">
+        <v>172.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -13335,8 +13415,11 @@
       <c r="N4">
         <v>61.4</v>
       </c>
+      <c r="O4">
+        <v>60.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -13376,8 +13459,11 @@
       <c r="N5">
         <v>20.5</v>
       </c>
+      <c r="O5">
+        <v>20.399999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -13393,8 +13479,11 @@
       <c r="N6">
         <v>75.5</v>
       </c>
+      <c r="O6">
+        <v>73.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -13434,8 +13523,11 @@
       <c r="N7">
         <v>113</v>
       </c>
+      <c r="O7">
+        <v>112</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -13475,8 +13567,11 @@
       <c r="N8">
         <v>76</v>
       </c>
+      <c r="O8">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -13504,8 +13599,11 @@
       <c r="N9">
         <v>222</v>
       </c>
+      <c r="O9">
+        <v>214</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -13533,8 +13631,11 @@
       <c r="N10">
         <v>183</v>
       </c>
+      <c r="O10">
+        <v>78</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -13562,8 +13663,11 @@
       <c r="N11">
         <v>48</v>
       </c>
+      <c r="O11">
+        <v>59</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -13591,8 +13695,11 @@
       <c r="N12">
         <v>141</v>
       </c>
+      <c r="O12">
+        <v>142</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -13629,8 +13736,11 @@
       <c r="N13" t="s">
         <v>43</v>
       </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -13661,8 +13771,11 @@
       <c r="N14">
         <v>82</v>
       </c>
+      <c r="O14">
+        <v>78</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -13685,7 +13798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -13713,8 +13826,11 @@
       <c r="N16">
         <v>27</v>
       </c>
+      <c r="O16">
+        <v>18</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -13742,8 +13858,11 @@
       <c r="N17">
         <v>22</v>
       </c>
+      <c r="O17">
+        <v>13</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -13771,8 +13890,11 @@
       <c r="N18">
         <v>15</v>
       </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -13795,7 +13917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -13820,8 +13942,11 @@
       <c r="N20">
         <v>15.1</v>
       </c>
+      <c r="O20">
+        <v>15.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -13849,8 +13974,11 @@
       <c r="N21">
         <v>46</v>
       </c>
+      <c r="O21">
+        <v>48.1</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -13878,8 +14006,11 @@
       <c r="N22">
         <v>560</v>
       </c>
+      <c r="O22">
+        <v>565</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -13907,8 +14038,11 @@
       <c r="N23">
         <v>42</v>
       </c>
+      <c r="O23">
+        <v>49</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -13936,8 +14070,11 @@
       <c r="N24">
         <v>28</v>
       </c>
+      <c r="O24">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -13965,8 +14102,11 @@
       <c r="N25">
         <v>82</v>
       </c>
+      <c r="O25">
+        <v>85</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -13994,8 +14134,11 @@
       <c r="N26">
         <v>27</v>
       </c>
+      <c r="O26">
+        <v>27.6</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -14023,8 +14166,11 @@
       <c r="N27">
         <v>32.799999999999997</v>
       </c>
+      <c r="O27">
+        <v>32.4</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -14047,7 +14193,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -14070,7 +14216,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -14081,7 +14227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -14101,7 +14247,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -14196,7 +14342,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C1:L31">
+  <sortState columnSort="1" ref="C1:L31">
     <sortCondition ref="C1:L1"/>
   </sortState>
   <phoneticPr fontId="1"/>
